--- a/data/cached_generated_reports/2024-2025/red_flag_4.xlsx
+++ b/data/cached_generated_reports/2024-2025/red_flag_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,12 +511,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3103498400000V</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ITAU AUDITORS AND DPA  LTD</t>
+          <t>TRIAL SERVICES COMPANY  LTD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -526,27 +526,27 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ITAU AUDITORS AND DPA  LTD</t>
+          <t>TRIAL SERVICES COMPANY  LTD</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>NYARUGENGE</t>
+          <t>Nyabugogo :</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>NYARUGENGE</t>
+          <t>Nyabugogo :</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>NYARUGENGE</t>
+          <t>Nyabugogo :</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>4385</t>
+          <t>1245 Kigali</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>itau_dpa@yahoo.fr</t>
+          <t>trialservicesltd@yahoo.com</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0788307360</t>
+          <t>788382272</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1196180001858031</t>
+          <t>1197080004983020</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -576,24 +576,24 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>EQUITY BANK</t>
+          <t>COGEBANQUE</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>101318041</t>
+          <t>102317498</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3117513300000X</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ITAU AUDITORS  LTD</t>
+          <t>GREAT HOTEL KIYOVU Ltd</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -603,27 +603,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ITAU AUDITORS  LTD</t>
+          <t>GREAT HOTEL KIYOVU Ltd</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>NYARUGENGE</t>
+          <t>Nyarugenge-Kigali</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>NYARUGENGE</t>
+          <t>Nyarugenge-Kigali</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>NYARUGENGE</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>4385</t>
+          <t>Nyarugenge-Kigali</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -633,44 +628,44 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>itau_dpa@yahoo.fr</t>
+          <t>greathotel2050@gmail.com</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0788677410</t>
+          <t>788382272</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>KE021952</t>
+          <t>1197080004983020</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>KENYA</t>
+          <t>RWANDA</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>I&amp;M Bank</t>
+          <t>BK</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>102007253</t>
+          <t>110329376</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3101669500000T</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DIRECT SERVICES  LTD</t>
+          <t>ITAU AUDITORS AND DPA  LTD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -680,22 +675,27 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DIRECT SERVICES  LTD</t>
+          <t>ITAU AUDITORS AND DPA  LTD</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Karubanda :</t>
+          <t>NYARUGENGE</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Karubanda :</t>
+          <t>NYARUGENGE</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Karubanda :</t>
+          <t>NYARUGENGE</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>4385</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -705,17 +705,17 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>rupaccy@gmail.com</t>
+          <t>itau_dpa@yahoo.fr</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0788359736</t>
+          <t>0788307360</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1198980180555085</t>
+          <t>1196180001858031</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -725,24 +725,24 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>COGEBANQUE</t>
+          <t>EQUITY BANK</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>102190716</t>
+          <t>101318041</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3102294700000A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>RUPA BUSINESS COMPANY Ltd</t>
+          <t>ITAU AUDITORS  LTD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -752,22 +752,27 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>RUPA BUSINESS COMPANY Ltd</t>
+          <t>ITAU AUDITORS  LTD</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Bugesera, Nyamata</t>
+          <t>NYARUGENGE</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Bugesera, Nyamata</t>
+          <t>NYARUGENGE</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Bugesera, Nyamata</t>
+          <t>NYARUGENGE</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>4385</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -777,44 +782,44 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>rupaccy@gmail.com</t>
+          <t>itau_dpa@yahoo.fr</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>788359736</t>
+          <t>0788677410</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1198980180555085</t>
+          <t>KE021952</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>RWANDA</t>
+          <t>KENYA</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>COGEBANQUE</t>
+          <t>I&amp;M Bank</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>110179209</t>
+          <t>102007253</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3103164500000M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>IBIGABIRO HOTEL Ltd</t>
+          <t>DIRECT SERVICES  LTD</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -824,22 +829,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>IBIGABIRO HOTEL Ltd</t>
+          <t>DIRECT SERVICES  LTD</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>KAGANO/NYAMASHEKE</t>
+          <t>Karubanda :</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>KAGANO/NYAMASHEKE</t>
+          <t>Karubanda :</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>KAGANO/NYAMASHEKE</t>
+          <t>Karubanda :</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -849,17 +854,17 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>judith.uwankwera@yahoo.com</t>
+          <t>rupaccy@gmail.com</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>788777282</t>
+          <t>0788359736</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1196970030416098</t>
+          <t>1198980180555085</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -874,82 +879,534 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>107931976</t>
+          <t>102190716</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3117465400000Y</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>RUPA BUSINESS COMPANY Ltd</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>TIN</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>RUPA BUSINESS COMPANY Ltd</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Bugesera, Nyamata</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bugesera, Nyamata</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Bugesera, Nyamata</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Rwanda</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>rupaccy@gmail.com</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>788359736</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>1198980180555085</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>RWANDA</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>COGEBANQUE</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>110179209</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3104214900000Z</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ULTIMATE DEVELOPERS Ltd</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>TIN</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ULTIMATE DEVELOPERS Ltd</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Nyarugenge: RSSB Building-Tower II-9th Floor</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nyarugenge: RSSB Building-Tower II-9th Floor</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Nyarugenge: RSSB Building-Tower II-9th Floor</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>5516</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Rwanda</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>d.murwanashyaka@udl.rw</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0780867765</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>www.udl.rw</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>1198980178061009</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>RWANDA</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>102514147</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3114859500000P</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>INUMA TECHNOLOGY Ltd</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>TIN</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>INUMA TECHNOLOGY Ltd</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>KN 2 ST Rubangura House(Underground Floor-Door 108)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>KN 2 ST Rubangura House(Underground Floor-Door 108)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>KN 2 ST Rubangura House(Underground Floor-Door 108)</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>+250</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Rwanda</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>mugabejosue@gmail.com</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0780867765</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>www.inumatechnology.com</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>1199470011111103</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Rwanda</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Bank of Africa Rwanda</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>107530868</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>KALISA STEPHEN</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>TIN</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>KALISA STEPHEN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>KIGALI CITY</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>KIGALI CITY</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>KIGALI CITY</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Rwanda</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>stephen.cp12@gmail.com</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0788306945</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>1197880014571139</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Rwandan</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>EQUITY BANK</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>103563793</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3104239700000H</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ROCK STARS CONSULTANCY &amp; SUPPLIERS Ltd</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>TIN</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ROCK STARS CONSULTANCY &amp; SUPPLIERS Ltd</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Kamashashi :</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Kamashashi :</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Kamashashi :</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Rwanda</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>rockconsult13@yahoo.co.uk</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0788306945</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>1197880014571139</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>RWANDA</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>102520083</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3115399100000H</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>IBIGABIRO HOTEL Ltd</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>TIN</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>IBIGABIRO HOTEL Ltd</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>KAGANO/NYAMASHEKE</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>KAGANO/NYAMASHEKE</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>KAGANO/NYAMASHEKE</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Rwanda</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>judith.uwankwera@yahoo.com</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>788777282</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>1196970030416098</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>RWANDA</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>COGEBANQUE</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>107931976</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3104017800000C</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>SPEC  LTD</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>TIN</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>SPEC  LTD</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>Nyamasheke</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Nyamasheke</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Nyamasheke</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>12 , Nyamasheke</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>Rwanda</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>judith.uwankwera@yahoo.com</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>788777282</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>1196970030416098</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>RWANDA</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>COGEBANQUE</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>102461662</t>
         </is>

--- a/data/cached_generated_reports/2024-2025/red_flag_4.xlsx
+++ b/data/cached_generated_reports/2024-2025/red_flag_4.xlsx
@@ -511,12 +511,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3103498400000V</t>
+          <t>3101669500000T</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TRIAL SERVICES COMPANY  LTD</t>
+          <t>ITAU AUDITORS AND DPA  LTD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -526,27 +526,27 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>TRIAL SERVICES COMPANY  LTD</t>
+          <t>ITAU AUDITORS AND DPA  LTD</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Nyabugogo :</t>
+          <t>NYARUGENGE</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Nyabugogo :</t>
+          <t>NYARUGENGE</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Nyabugogo :</t>
+          <t>NYARUGENGE</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1245 Kigali</t>
+          <t>4385</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>trialservicesltd@yahoo.com</t>
+          <t>itau_dpa@yahoo.fr</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>788382272</t>
+          <t>0788307360</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1197080004983020</t>
+          <t>1196180001858031</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -576,24 +576,24 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>COGEBANQUE</t>
+          <t>EQUITY BANK</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>102317498</t>
+          <t>101318041</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3117513300000X</t>
+          <t>3102294700000A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GREAT HOTEL KIYOVU Ltd</t>
+          <t>ITAU AUDITORS  LTD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -603,22 +603,27 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>GREAT HOTEL KIYOVU Ltd</t>
+          <t>ITAU AUDITORS  LTD</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Nyarugenge-Kigali</t>
+          <t>NYARUGENGE</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nyarugenge-Kigali</t>
+          <t>NYARUGENGE</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Nyarugenge-Kigali</t>
+          <t>NYARUGENGE</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>4385</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -628,44 +633,44 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>greathotel2050@gmail.com</t>
+          <t>itau_dpa@yahoo.fr</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>788382272</t>
+          <t>0788677410</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1197080004983020</t>
+          <t>KE021952</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>RWANDA</t>
+          <t>KENYA</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>BK</t>
+          <t>I&amp;M Bank</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>110329376</t>
+          <t>102007253</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3101669500000T</t>
+          <t>3103498400000V</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ITAU AUDITORS AND DPA  LTD</t>
+          <t>TRIAL SERVICES COMPANY  LTD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -675,27 +680,27 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ITAU AUDITORS AND DPA  LTD</t>
+          <t>TRIAL SERVICES COMPANY  LTD</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>NYARUGENGE</t>
+          <t>Nyabugogo :</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>NYARUGENGE</t>
+          <t>Nyabugogo :</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>NYARUGENGE</t>
+          <t>Nyabugogo :</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>4385</t>
+          <t>1245 Kigali</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -705,17 +710,17 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>itau_dpa@yahoo.fr</t>
+          <t>trialservicesltd@yahoo.com</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0788307360</t>
+          <t>788382272</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1196180001858031</t>
+          <t>1197080004983020</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -725,24 +730,24 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>EQUITY BANK</t>
+          <t>COGEBANQUE</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>101318041</t>
+          <t>102317498</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3102294700000A</t>
+          <t>3117513300000X</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ITAU AUDITORS  LTD</t>
+          <t>GREAT HOTEL KIYOVU Ltd</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -752,27 +757,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ITAU AUDITORS  LTD</t>
+          <t>GREAT HOTEL KIYOVU Ltd</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>NYARUGENGE</t>
+          <t>Nyarugenge-Kigali</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>NYARUGENGE</t>
+          <t>Nyarugenge-Kigali</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>NYARUGENGE</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>4385</t>
+          <t>Nyarugenge-Kigali</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -782,32 +782,32 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>itau_dpa@yahoo.fr</t>
+          <t>greathotel2050@gmail.com</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0788677410</t>
+          <t>788382272</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>KE021952</t>
+          <t>1197080004983020</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>KENYA</t>
+          <t>RWANDA</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>I&amp;M Bank</t>
+          <t>BK</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>102007253</t>
+          <t>110329376</t>
         </is>
       </c>
     </row>
@@ -956,14 +956,9 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3104214900000Z</t>
-        </is>
-      </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ULTIMATE DEVELOPERS Ltd</t>
+          <t>KALISA STEPHEN</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -973,27 +968,27 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ULTIMATE DEVELOPERS Ltd</t>
+          <t>KALISA STEPHEN</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Nyarugenge: RSSB Building-Tower II-9th Floor</t>
+          <t>KIGALI CITY</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Nyarugenge: RSSB Building-Tower II-9th Floor</t>
+          <t>KIGALI CITY</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Nyarugenge: RSSB Building-Tower II-9th Floor</t>
+          <t>KIGALI CITY</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>5516</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1003,49 +998,44 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>d.murwanashyaka@udl.rw</t>
+          <t>stephen.cp12@gmail.com</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0780867765</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>www.udl.rw</t>
+          <t>0788306945</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1198980178061009</t>
+          <t>1197880014571139</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>RWANDA</t>
+          <t>Rwandan</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>BK</t>
+          <t>EQUITY BANK</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>102514147</t>
+          <t>103563793</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3114859500000P</t>
+          <t>3104239700000H</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>INUMA TECHNOLOGY Ltd</t>
+          <t>ROCK STARS CONSULTANCY &amp; SUPPLIERS Ltd</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1055,27 +1045,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>INUMA TECHNOLOGY Ltd</t>
+          <t>ROCK STARS CONSULTANCY &amp; SUPPLIERS Ltd</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>KN 2 ST Rubangura House(Underground Floor-Door 108)</t>
+          <t>Kamashashi :</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>KN 2 ST Rubangura House(Underground Floor-Door 108)</t>
+          <t>Kamashashi :</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>KN 2 ST Rubangura House(Underground Floor-Door 108)</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>+250</t>
+          <t>Kamashashi :</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1085,44 +1070,44 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>mugabejosue@gmail.com</t>
+          <t>rockconsult13@yahoo.co.uk</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0780867765</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>www.inumatechnology.com</t>
+          <t>0788306945</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1199470011111103</t>
+          <t>1197880014571139</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Rwanda</t>
+          <t>RWANDA</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Bank of Africa Rwanda</t>
+          <t>BK</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>107530868</t>
+          <t>102520083</t>
         </is>
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3114859500000P</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>KALISA STEPHEN</t>
+          <t>INUMA TECHNOLOGY Ltd</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1132,27 +1117,27 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>KALISA STEPHEN</t>
+          <t>INUMA TECHNOLOGY Ltd</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>KIGALI CITY</t>
+          <t>KN 2 ST Rubangura House(Underground Floor-Door 108)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>KIGALI CITY</t>
+          <t>KN 2 ST Rubangura House(Underground Floor-Door 108)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>KIGALI CITY</t>
+          <t>KN 2 ST Rubangura House(Underground Floor-Door 108)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>+250</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1162,44 +1147,49 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>stephen.cp12@gmail.com</t>
+          <t>mugabejosue@gmail.com</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0788306945</t>
+          <t>0780867765</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>www.inumatechnology.com</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1197880014571139</t>
+          <t>1199470011111103</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Rwandan</t>
+          <t>Rwanda</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>EQUITY BANK</t>
+          <t>Bank of Africa Rwanda</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>103563793</t>
+          <t>107530868</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3104239700000H</t>
+          <t>3104214900000Z</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ROCK STARS CONSULTANCY &amp; SUPPLIERS Ltd</t>
+          <t>ULTIMATE DEVELOPERS Ltd</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1209,22 +1199,27 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ROCK STARS CONSULTANCY &amp; SUPPLIERS Ltd</t>
+          <t>ULTIMATE DEVELOPERS Ltd</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Kamashashi :</t>
+          <t>Nyarugenge: RSSB Building-Tower II-9th Floor</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Kamashashi :</t>
+          <t>Nyarugenge: RSSB Building-Tower II-9th Floor</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Kamashashi :</t>
+          <t>Nyarugenge: RSSB Building-Tower II-9th Floor</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>5516</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1234,17 +1229,22 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>rockconsult13@yahoo.co.uk</t>
+          <t>d.murwanashyaka@udl.rw</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0788306945</t>
+          <t>0780867765</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>www.udl.rw</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1197880014571139</t>
+          <t>1198980178061009</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>102520083</t>
+          <t>102514147</t>
         </is>
       </c>
     </row>
